--- a/data/minfin/30_questions.xlsx
+++ b/data/minfin/30_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
   <si>
     <t>question</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Какие сроки таможенного контроля после выпуска товаров установлены в Российской Федерации?</t>
   </si>
   <si>
-    <t>Как подать в ФТС России жалобу на решение таможенного органа?</t>
-  </si>
-  <si>
     <t>Как обжаловать решение таможенного органа в суде?</t>
   </si>
   <si>
@@ -336,25 +333,10 @@
     <t>количество мест, международного, почтового обмена, объект, почтовой связи, на территории Российской Федерации</t>
   </si>
   <si>
-    <t>На территории Российской Федерации существует двадцать одно место для международного почтового обмена, являющиеся объектами почтовой связи</t>
-  </si>
-  <si>
-    <t>На территории Российской Федерации существует 21место для международного почтового обмена, являющиеся объектами почтовой связи</t>
-  </si>
-  <si>
     <t>форма, таможенная проверка</t>
   </si>
   <si>
-    <t>Таможенными органами проводятся камеральные таможенные проверки или выездные таможенные проверки</t>
-  </si>
-  <si>
-    <t>В соответствии с Пунктом 7 статьи 122 Таможенного кодекса Таможенного союза таможенная проверка осуществляются в форме камеральной таможенной проверки (проводится таможенными органами по месту нахождения таможенного органа без выезда к проверяемому лицу) или выездной таможенной проверки (проводится таможенным органом с выездом в место нахождения юридического лица, место осуществления деятельности индивидуального предпринимателя и (или) в место фактического осуществления их деятельности)</t>
-  </si>
-  <si>
     <t>форма, таможенного контроля, предусмотрено, Таможенным кодексом, Таможенного союза</t>
-  </si>
-  <si>
-    <t>Таможенным кодексом Таможенного союза предусмотрено двенадцать форм таможенного контроля, такие как проверка документов и сведений, устный опрос, получение объяснений, таможенное наблюдение, осмотр, досмотр, личный таможенный досмотр и другие</t>
   </si>
   <si>
     <t>В соответствии со статьей 110 Таможенного кодекса Таможенного союза предусмотрено 12 форм таможенного контроля.
@@ -379,12 +361,6 @@
     <t>Таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение трех лет со дня окончания нахождения товаров под таможенным контролем</t>
   </si>
   <si>
-    <t>В соответствии со статьей 99 Таможенного кодекса Таможенного союза и статьи 164 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» Таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение 3 (трех) лет со дня окончания нахождения товаров под таможенным контролем</t>
-  </si>
-  <si>
-    <t>подать, в ФТС, России, Федеральная таможенная служба, жалоба, на решение, таможенного органа</t>
-  </si>
-  <si>
     <t>Памятка и порядок действий приведен в разделе «Ведомственный порядок обжалования решений, действий (бездействия) таможенных органов в сфере таможенного дела» на официальном сайте ФТС России в сети «Интернет»</t>
   </si>
   <si>
@@ -401,15 +377,6 @@
     <t>обжаловать, решение, таможенного органа, суд</t>
   </si>
   <si>
-    <t>Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц приведен в одноименном разделе на официальном сайте Федеральной таможенной службы России в сети «Интернет»</t>
-  </si>
-  <si>
-    <t>Порядок обжалования нормативных правовых актов ФТС России установлен главой 21 Кодекса административного судопроизводства Российской Федерации. 
-Порядок обжалования решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен также главой 22 Кодекса административного судопроизводства Российской Федерации.
-Порядок обжалования ненормативных правовых актов, решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен главой 24 Арбитражного процессуального кодекса Российской Федерации.
-Ознакомиться с указанными документами можно в разделе «Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц» на официальном сайте ФТС России</t>
-  </si>
-  <si>
     <t>Раздел «Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц» на официальном сайте ФТС России</t>
   </si>
   <si>
@@ -419,13 +386,6 @@
     <t>получить, консультацию, по вопросам, таможенного дела</t>
   </si>
   <si>
-    <t>Получить консультацию по вопросам таможенного дела можно по почтовому адресу, телефонам и адресу электронной почты подразделений таможенных органов указанных в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России</t>
-  </si>
-  <si>
-    <t>Получить консультацию по вопросам таможенного дела можно по почтовому адресу, телефонам и адресу электронной почты подразделений таможенных органов указанных в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России.
-Административный регламент Федеральной таможенной службы по предоставлению государственной услуги по информированию об актах таможенного законодательства Таможенного союза, законодательства Российской Федерации о таможенном деле и об иных правовых актах Российской Федерации в области таможенного дела и консультированию по вопросам таможенного дела и иным вопросам, входящим в компетенцию таможенных органов, утвержден приказом ФТС России от 9 июня 2012г. № 1128</t>
-  </si>
-  <si>
     <t xml:space="preserve">Раздел «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России </t>
   </si>
   <si>
@@ -438,18 +398,9 @@
     <t>Таможенное дело в Российской Федерации представляет собой совокупность средств и методов обеспечения соблюдения мер таможенно-тарифного регулирования, а также запретов и ограничений при ввозе товаров в Российскую Федерацию и вывозе товаров из Российской Федерации</t>
   </si>
   <si>
-    <t>В соответствии с частью 1 статьи 2 Федерального закона от 27.11.2010 № 311-ФЗ «О таможенном регулировании в Российской Федерации» под таможенным делом в Российской Федерации понимается совокупность средств и методов обеспечения соблюдения мер таможенно-тарифного регулирования, а также запретов и ограничений при ввозе товаров в Российскую Федерацию и вывозе товаров из Российской Федерации</t>
-  </si>
-  <si>
     <t>государства, страны, входят, Евразийский экономический союз, ЕАЭС</t>
   </si>
   <si>
-    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет пять государств: Российской Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
-  </si>
-  <si>
-    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет 5 государств: Российской Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
-  </si>
-  <si>
     <t>вступил, в силу, Таможенный кодекс, Таможенного союза</t>
   </si>
   <si>
@@ -462,27 +413,15 @@
     <t>сколько, государств, членами, Всемирной, таможенной организации</t>
   </si>
   <si>
-    <t xml:space="preserve">Членами Всемирной таможенной организации являются сто восемьдесят государств </t>
-  </si>
-  <si>
-    <t>Членами Всемирной таможенной организации являются 180 государств</t>
-  </si>
-  <si>
     <t>основана, Всемирная, таможенная организация</t>
   </si>
   <si>
-    <t>Всемирная таможенная организация основана пятнадцатого декабря одно тысяча девятьсот пятидесятого года</t>
-  </si>
-  <si>
     <t>Всемирная таможенная организация основана 15 декабря 1950 года</t>
   </si>
   <si>
     <t>с какого года, ФТС, Федеральная таможенная служба, стала, подведомственным органом, Минфин, России</t>
   </si>
   <si>
-    <t>Федеральная таможенная служба России является подведомственным органом Минфина России с две тысячи шестнадцатого года</t>
-  </si>
-  <si>
     <t>ФТС России является подведомственным органом Минфина России с 2016 года</t>
   </si>
   <si>
@@ -501,21 +440,9 @@
     <t>документ, регулируются, регулирование, вопросы, валютный контроль, Российская Федерация</t>
   </si>
   <si>
-    <t>Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом от 10.12.2003 № 173-ФЗ «О валютном регулировании и валютном контроле»</t>
-  </si>
-  <si>
-    <t>Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом номер сто семьдесят три ФЭ ЗЭ  «О валютном регулировании и валютном контроле»</t>
-  </si>
-  <si>
     <t>обязанность, декларирования, денежных средств, дорожных чеков, ввоз, физическими лицами, на таможенную территорию, ЕАЭС, Евразийский экономический союз</t>
   </si>
   <si>
-    <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает при превышении суммы в эквиваленте десять тысяч долларов США</t>
-  </si>
-  <si>
-    <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает при превышении суммы в эквиваленте 10 000 долларов США</t>
-  </si>
-  <si>
     <t>Требуется, необходимо, нужно, представление, предоставлять, паспорт, сделки, на бумажном носителе, при подаче, таможенной декларации</t>
   </si>
   <si>
@@ -525,9 +452,6 @@
     <t>Кто, помещать, монеты, из драгоценных металлов, являющихся, законным, платежным средством, под таможенную процедуру, экспорта</t>
   </si>
   <si>
-    <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена</t>
-  </si>
-  <si>
     <t>ответственность, предусмотрена, за совершение, валютных операций, с представлением, подложных, документов</t>
   </si>
   <si>
@@ -553,11 +477,6 @@
   </si>
   <si>
     <t>таможенники, работники таможни, отмечают, профессиональный, праздник</t>
-  </si>
-  <si>
-    <t>День таможенника Российской Федерации отмечается двадцать пятого октября. 
-В этот день в одно тысяча шестьсот пятьдесят третьем году царь Алексей Михайлович подписал Указ «О взимании таможенной пошлины с товаров в Москве и в городах с показанием, по сколько взято и с каких товаров», положивший начало созданию единой таможенной системы на Руси.
-Международный день таможенника отмечается двадцать шестого января</t>
   </si>
   <si>
     <t>День таможенника Российской Федерации отмечается 25 октября. 
@@ -656,19 +575,9 @@
     <t>В соответствии с пунктом 2 статьи 358 Таможенного кодекса Таможенного союза и пунктом 22 приложения 3 к Соглашению о порядке перемещения физическими лицами товаров для личного пользования через таможенную границу Таможенного союза и совершения таможенных операций, связанных с их выпуском, от 18 июня 2010 г., иностранец может ввезти в Российскую Федерацию легковой автомобиль, зарегистрированный в иностранном государстве, без уплаты таможенных платежей на срок не более 1 года</t>
   </si>
   <si>
-    <t>Исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивают: Денежные средства (деньги), Банковская гарантия, Поручительство,  Залог имущества</t>
-  </si>
-  <si>
     <t>способ, обеспечивается, исполнение, обязанности, по уплате, таможенных пошлин, налогов, в Российской Федерации</t>
   </si>
   <si>
-    <t>В соответствии с пунктом 1 статьи 86 Таможенного кодекса Таможенного союза, исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивают:
-• Денежные средства (деньги),
-• Банковская гарантия,
-• Поручительство,
-• Залог имущества</t>
-  </si>
-  <si>
     <t>форма, представляться, предоставление, таможенный орган, банковские гарантии, обеспечения, исполнения, обязанности, по уплате, таможенных пошлин, налогов</t>
   </si>
   <si>
@@ -685,13 +594,307 @@
   </si>
   <si>
     <t>В соответствии с пунктом 5 статьи 88 Таможенного кодекса Таможенного союза сумма обеспечения исполнения обязанности по уплате таможенных пошлин, налогов определяется как сумма таможенных пошлин, налогов, которые могут быть дополнительно начислены в результате дополнительной проверки</t>
+  </si>
+  <si>
+    <t>День таможенника Российской Федерации отмечается двадцать пятого октября. 
+В этот день в одна тысяча шестьсот пятьдесят третьем году царь Алексей Михайлович подписал Указ «О взимании таможенной пошлины с товаров в Москве и в городах с показанием, по сколько взято и с каких товаров», положивший начало созданию единой таможенной системы на Руси.
+Международный день таможенника отмечается двадцать шестого января</t>
+  </si>
+  <si>
+    <t>На территории Российской Федерации существует шестнадцать мест для международного почтового обмена, являющихся объектами почтовой связи</t>
+  </si>
+  <si>
+    <t>На территории Российской Федерации существует 16 мест для международного почтового обмена, являющихся объектами почтовой связи</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Таможенными органами проводятся камеральные таможенные проверки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выездные таможенные проверки</t>
+    </r>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 7 статьи 122 Таможенного кодекса Таможенного союза таможенная проверка осуществляется в форме камеральной таможенной проверки (проводится таможенными органами по месту нахождения таможенного органа без выезда к проверяемому лицу) или выездной таможенной проверки (проводится таможенным органом с выездом в место нахождения юридического лица, место осуществления деятельности индивидуального предпринимателя и (или) в место фактического осуществления их деятельности)</t>
+  </si>
+  <si>
+    <t>Таможенным кодексом Таможенного союза предусмотрено двенадцать форм таможенного контроля, такие как проверка документов и сведений, таможенный досмотр, личный таможенный досмотр, таможенный осмотр помещений и территорий, таможенная проверка и другие</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 99 Таможенного кодекса Таможенного союза и статьей 164 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение 3 (трех) лет со дня окончания нахождения товаров под таможенным контролем</t>
+  </si>
+  <si>
+    <t>Как подать в ФТС России жалобу на решение, действие (бездействие)  таможенного органа в области таможенного дела?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">подать, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">действие, бездействие, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в ФТС, России, Федеральная таможенная служба, жалоба, на решение, таможенного органа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц приведен в одноименном разделе на официальном сайте </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фэ Тэ эС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> России в сети «Интернет»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Порядок обжалования нормативных правовых актов ФТС России установлен главой 21 Кодекса административного судопроизводства Российской Федерации. 
+Порядок обжалования решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен также главой 22 Кодекса административного судопроизводства Российской Федерации.
+Порядок обжалования ненормативных правовых актов, решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен главой 24 Арбитражного процессуального кодекса Российской Федерации.
+Ознакомиться с указанными документами можно в разделе «Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц» на официальном сайте ФТС России </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в сети «Интернет»</t>
+    </r>
+  </si>
+  <si>
+    <t>Для получения консультации по вопросам таможенного дела необходимо обратиться в региональное таможенное управление или таможню, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>Получить консультацию по вопросам таможенного дела можно в региональном таможенном управлении или таможне, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет».
+Административный регламент Федеральной таможенной службы по предоставлению государственной услуги по информированию об актах таможенного законодательства Таможенного союза, законодательства Российской Федерации о таможенном деле и об иных правовых актах Российской Федерации в области таможенного дела и консультированию по вопросам таможенного дела и иным вопросам, входящим в компетенцию таможенных органов, утвержден приказом ФТС России от 9 июня 2012г. № 1128</t>
+  </si>
+  <si>
+    <t>В соответствии с частью 1 статьи 2 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» под таможенным делом в Российской Федерации понимается совокупность средств и методов обеспечения соблюдения мер таможенно-тарифного регулирования, а также запретов и ограничений при ввозе товаров в Российскую Федерацию и вывозе товаров из Российской Федерации</t>
+  </si>
+  <si>
+    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет пять государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
+  </si>
+  <si>
+    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет 5 государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Членами Всемирной таможенной организации является сто восемьдесят одно государство </t>
+  </si>
+  <si>
+    <t>Членами Всемирной таможенной организации является 181 государство</t>
+  </si>
+  <si>
+    <t>Всемирная таможенная организация основана пятнадцатого декабря одна тысяча девятьсот пятидесятого года</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фэ Тэ Эс</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> России является подведомственным органом Минфина России с две тысячи шестнадцатого года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> от десятого декабря две тысячи третьего года</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> номер сто семьдесят три ФЭ ЗЭ  «О валютном регулировании и валютном контроле»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом от 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>декабря</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>г.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> № 173-ФЗ «О валютном регулировании и валютном контроле»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте 10 000  долларов США</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте десять тысяч долларов Сэ Шэ А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ЕАЭС</t>
+    </r>
+  </si>
+  <si>
+    <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена Е А Э С</t>
+  </si>
+  <si>
+    <t>Товары, запрещенные к ввозу на таможенную территорию Е А Э С, но прибывшие на таможенную территорию Е А Э С, подлежат немедленному вывозу с таможенной территории Е А Э С</t>
+  </si>
+  <si>
+    <t>Исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается: Денежными средствами (деньгами), Банковской гарантией, Поручительством,  Залогом имущества</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 1 статьи 86 Таможенного кодекса Таможенного союза, исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается:
+• Денежными средствами (деньгами),
+• Банковской гарантией,
+• Поручительством,
+• Залогом имущества</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,13 +924,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -742,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -771,14 +987,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1105,7 +1324,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1113,7 +1332,7 @@
     <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="106" style="12" customWidth="1"/>
+    <col min="4" max="4" width="106" style="10" customWidth="1"/>
     <col min="5" max="5" width="51.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="43.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" style="2" customWidth="1"/>
@@ -1165,707 +1384,707 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
+      <c r="C8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>109</v>
+      <c r="C9" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="252">
       <c r="A10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>111</v>
+      <c r="C10" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="213" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="173.25">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>123</v>
+      <c r="C13" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="60.75" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>135</v>
+      <c r="C16" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A17" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>142</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>147</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="84" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="47.25">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="112.5" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="63">
-      <c r="A24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>158</v>
+      <c r="C24" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>162</v>
+        <v>34</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="94.5">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>168</v>
+        <v>144</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="78.75">
       <c r="A30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>170</v>
+        <v>146</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="204.75">
       <c r="A31" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="63">
       <c r="A32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>176</v>
+        <v>150</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="110.25">
       <c r="A33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>179</v>
+        <v>153</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="220.5">
       <c r="A34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>182</v>
+        <v>156</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.5">
       <c r="A35" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="63">
       <c r="A36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>188</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="110.25">
       <c r="A37" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>191</v>
+        <v>165</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="94.5">
       <c r="A38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="174.75" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="94.5">
-      <c r="A39" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>195</v>
+      <c r="C39" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78.75">
       <c r="A40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="78.75">
       <c r="A41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/30_questions.xlsx
+++ b/data/minfin/30_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="207">
   <si>
     <t>question</t>
   </si>
@@ -712,9 +712,6 @@
     </r>
   </si>
   <si>
-    <t>Для получения консультации по вопросам таможенного дела необходимо обратиться в региональное таможенное управление или таможню, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет»</t>
-  </si>
-  <si>
     <t>Получить консультацию по вопросам таможенного дела можно в региональном таможенном управлении или таможне, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет».
 Административный регламент Федеральной таможенной службы по предоставлению государственной услуги по информированию об актах таможенного законодательства Таможенного союза, законодательства Российской Федерации о таможенном деле и об иных правовых актах Российской Федерации в области таможенного дела и консультированию по вопросам таможенного дела и иным вопросам, входящим в компетенцию таможенных органов, утвержден приказом ФТС России от 9 июня 2012г. № 1128</t>
   </si>
@@ -845,21 +842,6 @@
   </si>
   <si>
     <r>
-      <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте десять тысяч долларов Сэ Шэ А</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена</t>
     </r>
     <r>
@@ -889,12 +871,21 @@
 • Поручительством,
 • Залогом имущества</t>
   </si>
+  <si>
+    <t>Помещение под таможенные процедуры драгоценных камней и драгоценных металлов юридическими лицами производится на специализированных (категорированных) таможенных постах или в отделах таможенных органов государств членов Таможенного союза, созданных в соответствии с законодательством государств членов</t>
+  </si>
+  <si>
+    <t>Для получения консультации по вопросам таможенного дела необходимо обратиться в региональное таможенное управление или таможню, почтовые адреса, телефоны и адрес\+а электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФэТэ\+ЭС России в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕА\+ЭС возникает в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте десять тысяч долларов Сэ Шэ А</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,24 +1301,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" style="2" customWidth="1"/>
@@ -1344,7 +1335,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1400,7 +1391,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -1419,7 +1410,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -1436,7 +1427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -1453,7 +1444,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1497,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -1525,7 +1516,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="252">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -1542,7 +1533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -1582,7 +1573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="213" customHeight="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -1605,7 +1596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="157.5">
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -1613,10 +1604,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>116</v>
@@ -1628,7 +1619,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -1639,13 +1630,13 @@
         <v>120</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="60.75" customHeight="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -1653,16 +1644,16 @@
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="31.5">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>65</v>
       </c>
@@ -1679,7 +1670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="31.5">
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
@@ -1687,16 +1678,16 @@
         <v>90</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="31.5">
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -1704,7 +1695,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>127</v>
@@ -1713,7 +1704,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="47.25">
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -1721,7 +1712,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>129</v>
@@ -1730,7 +1721,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="31.5">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
@@ -1747,7 +1738,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="63">
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -1764,7 +1755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -1772,16 +1763,16 @@
         <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="112.5" customHeight="1">
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -1789,16 +1780,16 @@
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="47.25">
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
@@ -1815,7 +1806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="63">
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
@@ -1823,16 +1814,16 @@
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
@@ -1849,7 +1840,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="47.25">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -1857,7 +1848,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>142</v>
@@ -1866,7 +1857,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="94.5">
+    <row r="29" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>77</v>
       </c>
@@ -1883,7 +1874,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="78.75">
+    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>78</v>
       </c>
@@ -1891,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>146</v>
@@ -1900,7 +1891,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="204.75">
+    <row r="31" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="63">
+    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -1934,7 +1925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="110.25">
+    <row r="33" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>81</v>
       </c>
@@ -1951,7 +1942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="220.5">
+    <row r="34" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
@@ -1968,7 +1959,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="409.5">
+    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>83</v>
       </c>
@@ -1985,7 +1976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63">
+    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
@@ -2002,7 +1993,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="110.25">
+    <row r="37" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
@@ -2019,7 +2010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="94.5">
+    <row r="38" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
@@ -2036,7 +2027,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="174.75" customHeight="1">
+    <row r="39" spans="1:5" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
@@ -2044,16 +2035,16 @@
         <v>47</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="78.75">
+    <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
@@ -2070,7 +2061,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="78.75">
+    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>89</v>
       </c>

--- a/data/minfin/30_questions.xlsx
+++ b/data/minfin/30_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Какие основные задачи решаются в рамках заседаний Экспертно-консультативного совета по реализации таможенной политики при ФТС России?</t>
-  </si>
-  <si>
-    <t>Каковы реквизиты счета, на который подлежат перечислению денежные средства, предназначенные для оплаты таможенных платежей</t>
   </si>
   <si>
     <t>Каким законодательным актом определен перечень товаров, ввоз которых на территорию Российской Федерации не подлежит обложению налогом на добавленную стоимость?</t>
@@ -361,9 +358,6 @@
     <t>Таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение трех лет со дня окончания нахождения товаров под таможенным контролем</t>
   </si>
   <si>
-    <t>Памятка и порядок действий приведен в разделе «Ведомственный порядок обжалования решений, действий (бездействия) таможенных органов в сфере таможенного дела» на официальном сайте ФТС России в сети «Интернет»</t>
-  </si>
-  <si>
     <t>Порядок подачи, рассмотрения и разрешения жалоб на решения, действия (бездействие) таможенных органов и их должностных лиц определен главой 3 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации».
 Памятка и порядок действий размещены в разделе «Ведомственный порядок обжалования решений, действий (бездействия) таможенных органов в сфере таможенного дела» на официальном сайте ФТС России в сети «Интернет»</t>
   </si>
@@ -492,24 +486,13 @@
     <t>При Федеральной таможенной службе России существуют консультативные органы, а именно Экспертно-консультативный совет по реализации таможенной политики при ФТС России и Общественный совет при ФТС России</t>
   </si>
   <si>
-    <t>Консультативные органы при Федеральной таможенной службе России, в состав которых входят участники внешнеэкономической деятельности:
-• Экспертно-консультативный совет по реализации таможенной политики при ФТС России,
-• Общественный совет при ФТС России</t>
-  </si>
-  <si>
     <t>цель, деятельности, Общественного совета, при ФТС России</t>
   </si>
   <si>
-    <t>Целью деятельности Общественного совета при ФТС России является осуществление общественного контроля за деятельностью ФТС России</t>
-  </si>
-  <si>
     <t>Целью деятельности Общественного совета при ФТС России является осуществление общественного контроля за деятельностью ФТС России, включая рассмотрение проектов разрабатываемых общественно значимых нормативных правовых актов, участие в мониторинге качества оказания государственных услуг, реализации контрольно-надзорных функций, хода проведения антикоррупционной и кадровой работы, оценке эффективности государственных закупок, рассмотрение годовых планов деятельности ФТС России и отчета об их исполнении, а также иных вопросов, предусмотренных законодательством Российской Федерации</t>
   </si>
   <si>
     <t>задачи, решаются, заседаний, Экспертно-консультативного совета, по реализации, таможенной политики, при ФТС России</t>
-  </si>
-  <si>
-    <t>Основными задачами Экспертно-консультативного совета по реализации таможенной политики при ФТС России являются: разработка предложений по совершенствованию таможенной политики Российской Федерации и механизма ее реализации таможенными органами; а также разработка предложений по совершенствованию и упрощению форм и методов таможенного контроля, борьбы с нарушениями таможенных правил</t>
   </si>
   <si>
     <t xml:space="preserve">Созданный в 1996 году Консультативный совет по реализации таможенной политики – традиционный формат диалога с российскими участниками внешнеэкономической деятельности. В настоящее время преобразован в Экспертно-консультативный совет по реализации таможенной политики при ФТС России. Основными задачами Совета являются: 
@@ -521,6 +504,349 @@
   </si>
   <si>
     <t>Реквизиты счета для перечисления денежных средств для оплаты таможенных платежей и правила заполнения полей платежного документа приведены на экране</t>
+  </si>
+  <si>
+    <t>законодательный, акт, определен, определяет, перечень товаров, ввоз, на территорию, Российская Федерация, РФ, не подлежит, обложению, налог, на добавленную стоимость</t>
+  </si>
+  <si>
+    <t>Перечень товаров, ввоз которых на территорию Российской Федерации не подлежит обложению налогом на добавленную стоимость, определен статьей 150 второй части Налогового кодекса Российской Федерации</t>
+  </si>
+  <si>
+    <t>Перечень товаров, ввоз которых на территорию Российской Федерации не подлежит обложению налогом на добавленную стоимость, определяет Налоговый кодекс Российской Федерации, часть II, статья 150</t>
+  </si>
+  <si>
+    <t>соблюдение, условия, при покупке, товаров, в иностранных, интернет-магазинах, физические лица, освобождены, от уплаты, таможенных пошлин, налогов</t>
+  </si>
+  <si>
+    <t>При покупке товаров в иностранных интернет-магазинах физические лица освобождаются от уплаты таможенных пошлин, налогов при условии, что таможенная стоимость товаров, ввозимых в течение календарного месяца в адрес одного получателя, не превышает сумму, эквивалентную одной тысяче евро, и вес не превышает тридцать одного килограмма</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктами 11 и 16 приложения 3 к Соглашению о порядке перемещения физическими лицами товаров для личного пользования через таможенную границу Таможенного союза и совершения таможенных операций, связанных с их выпуском, от 18 июня 2010 г., при покупке товаров в иностранных интернет-магазинах физические лица освобождаются от уплаты таможенных пошлин, налогов при условии, что таможенная стоимость товаров, ввозимых в течение календарного месяца в адрес одного получателя, не превышает сумму, эквивалентную 1000 евро, и вес не превышает 31 килограмма</t>
+  </si>
+  <si>
+    <t>срок, иностранец, временно, ввезти, в Российскую Федерацию, легковой автомобиль, зарегистрированный, в иностранном государстве, без уплаты, таможенных платежей</t>
+  </si>
+  <si>
+    <t>Иностранец может ввезти в Российскую Федерацию легковой автомобиль, зарегистрированный в иностранном государстве, без уплаты таможенных платежей на срок не более одного года</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 2 статьи 358 Таможенного кодекса Таможенного союза и пунктом 22 приложения 3 к Соглашению о порядке перемещения физическими лицами товаров для личного пользования через таможенную границу Таможенного союза и совершения таможенных операций, связанных с их выпуском, от 18 июня 2010 г., иностранец может ввезти в Российскую Федерацию легковой автомобиль, зарегистрированный в иностранном государстве, без уплаты таможенных платежей на срок не более 1 года</t>
+  </si>
+  <si>
+    <t>способ, обеспечивается, исполнение, обязанности, по уплате, таможенных пошлин, налогов, в Российской Федерации</t>
+  </si>
+  <si>
+    <t>форма, представляться, предоставление, таможенный орган, банковские гарантии, обеспечения, исполнения, обязанности, по уплате, таможенных пошлин, налогов</t>
+  </si>
+  <si>
+    <t>Банковские гарантии предоставляются в таможенный орган в качестве обеспечения исполнения обязанности по уплате таможенных пошлин, налогов в форме электронного документа, подписанного усиленной квалифицированной электронной подписью, или в письменной форме на бумажном носителе</t>
+  </si>
+  <si>
+    <t>В соответствии с частью 3 статьи 141 ФЗ-311 «О таможенном регулировании в Российской Федерации» банковские гарантии в качестве обеспечения исполнения обязанности по уплате таможенных пошлин, налогов предоставляются в таможенный орган в форме электронного документа, подписанного усиленной квалифицированной электронной подписью, или в письменной форме на бумажном носителе</t>
+  </si>
+  <si>
+    <t>определяется, сумма, обеспечения, исполнения, обязанности, по уплате, таможенных пошлин, налогов, при проведении, дополнительной проверки, сведении, о товаре, заявленных, декларация, товар</t>
+  </si>
+  <si>
+    <t>Сумма обеспечения исполнения обязанности по уплате таможенных пошлин, налогов определяется как сумма таможенных пошлин, налогов, которые могут быть дополнительно начислены в результате дополнительной проверки</t>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 5 статьи 88 Таможенного кодекса Таможенного союза сумма обеспечения исполнения обязанности по уплате таможенных пошлин, налогов определяется как сумма таможенных пошлин, налогов, которые могут быть дополнительно начислены в результате дополнительной проверки</t>
+  </si>
+  <si>
+    <t>День таможенника Российской Федерации отмечается двадцать пятого октября. 
+В этот день в одна тысяча шестьсот пятьдесят третьем году царь Алексей Михайлович подписал Указ «О взимании таможенной пошлины с товаров в Москве и в городах с показанием, по сколько взято и с каких товаров», положивший начало созданию единой таможенной системы на Руси.
+Международный день таможенника отмечается двадцать шестого января</t>
+  </si>
+  <si>
+    <t>На территории Российской Федерации существует шестнадцать мест для международного почтового обмена, являющихся объектами почтовой связи</t>
+  </si>
+  <si>
+    <t>На территории Российской Федерации существует 16 мест для международного почтового обмена, являющихся объектами почтовой связи</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Таможенными органами проводятся камеральные таможенные проверки </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>и</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> выездные таможенные проверки</t>
+    </r>
+  </si>
+  <si>
+    <t>В соответствии с пунктом 7 статьи 122 Таможенного кодекса Таможенного союза таможенная проверка осуществляется в форме камеральной таможенной проверки (проводится таможенными органами по месту нахождения таможенного органа без выезда к проверяемому лицу) или выездной таможенной проверки (проводится таможенным органом с выездом в место нахождения юридического лица, место осуществления деятельности индивидуального предпринимателя и (или) в место фактического осуществления их деятельности)</t>
+  </si>
+  <si>
+    <t>Таможенным кодексом Таможенного союза предусмотрено двенадцать форм таможенного контроля, такие как проверка документов и сведений, таможенный досмотр, личный таможенный досмотр, таможенный осмотр помещений и территорий, таможенная проверка и другие</t>
+  </si>
+  <si>
+    <t>В соответствии со статьей 99 Таможенного кодекса Таможенного союза и статьей 164 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение 3 (трех) лет со дня окончания нахождения товаров под таможенным контролем</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">подать, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">действие, бездействие, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> в ФТС, России, Федеральная таможенная служба, жалоба, на решение, таможенного органа</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Порядок обжалования нормативных правовых актов ФТС России установлен главой 21 Кодекса административного судопроизводства Российской Федерации. 
+Порядок обжалования решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен также главой 22 Кодекса административного судопроизводства Российской Федерации.
+Порядок обжалования ненормативных правовых актов, решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен главой 24 Арбитражного процессуального кодекса Российской Федерации.
+Ознакомиться с указанными документами можно в разделе «Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц» на официальном сайте ФТС России </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в сети «Интернет»</t>
+    </r>
+  </si>
+  <si>
+    <t>В соответствии с частью 1 статьи 2 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» под таможенным делом в Российской Федерации понимается совокупность средств и методов обеспечения соблюдения мер таможенно-тарифного регулирования, а также запретов и ограничений при ввозе товаров в Российскую Федерацию и вывозе товаров из Российской Федерации</t>
+  </si>
+  <si>
+    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет пять государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
+  </si>
+  <si>
+    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет 5 государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Членами Всемирной таможенной организации является сто восемьдесят одно государство </t>
+  </si>
+  <si>
+    <t>Членами Всемирной таможенной организации является 181 государство</t>
+  </si>
+  <si>
+    <t>Всемирная таможенная организация основана пятнадцатого декабря одна тысяча девятьсот пятидесятого года</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фэ Тэ Эс</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> России является подведомственным органом Минфина России с две тысячи шестнадцатого года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> от десятого декабря две тысячи третьего года</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> номер сто семьдесят три ФЭ ЗЭ  «О валютном регулировании и валютном контроле»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом от 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>декабря</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>г.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> № 173-ФЗ «О валютном регулировании и валютном контроле»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> ЕАЭС</t>
+    </r>
+  </si>
+  <si>
+    <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена Е А Э С</t>
+  </si>
+  <si>
+    <t>Товары, запрещенные к ввозу на таможенную территорию Е А Э С, но прибывшие на таможенную территорию Е А Э С, подлежат немедленному вывозу с таможенной территории Е А Э С</t>
+  </si>
+  <si>
+    <t>Исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается: Денежными средствами (деньгами), Банковской гарантией, Поручительством,  Залогом имущества</t>
+  </si>
+  <si>
+    <t>Помещение под таможенные процедуры драгоценных камней и драгоценных металлов юридическими лицами производится на специализированных (категорированных) таможенных постах или в отделах таможенных органов государств членов Таможенного союза, созданных в соответствии с законодательством государств членов</t>
+  </si>
+  <si>
+    <t>Для получения консультации по вопросам таможенного дела необходимо обратиться в региональное таможенное управление или таможню, почтовые адреса, телефоны и адрес\+а электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФэТэ\+ЭС России в сети «Интернет»</t>
+  </si>
+  <si>
+    <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕА\+ЭС возникает в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте десять тысяч долларов Сэ Шэ А</t>
+  </si>
+  <si>
+    <t>Как подать в ФТС России жалобу на решение, действие (бездействие) таможенного органа в области таможенного дела?</t>
+  </si>
+  <si>
+    <t>Памятка и порядок действий приведен в разделе «Ведомственный порядок обжалования решений, действий (бездействия) таможенных органов в сфере таможенного дела» на официальном сайте Фэ Тэ эС России в сети «Интернет»</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) Фэ Тэ эС России, подчиненных таможенных органов и их должностных лиц приведен в одноименном разделе на официальном сайте </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Фэ Тэ эС</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> России в сети «Интернет»</t>
+    </r>
+  </si>
+  <si>
+    <t>Получить консультацию по вопросам таможенного дела можно в региональном таможенном управлении или таможне, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет».
+Административный регламент Федеральной таможенной службы по предоставлению государственной услуги по информированию об актах таможенного законодательства Таможенного союза, законодательства Российской Федерации о таможенном деле и об иных правовых актах Российской Федерации в области таможенного дела и консультированию по вопросам таможенного дела и иным вопросам, входящим в компетенцию таможенных органов, утвержден приказом ФТС России от 9 июня 2012 г. № 1128</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма превышает в эквиваленте 10 000  долларов США</t>
+    </r>
+  </si>
+  <si>
+    <t>Консультативные органы при Федеральной таможенной службе России, в состав которых входят участники внешнеэкономической деятельности:
+• Экспертно-консультативный совет по реализации таможенной политики при ФТС России;
+• Общественный совет при ФТС России</t>
+  </si>
+  <si>
+    <t>Целью деятельности Общественного совета при Фэ Тэ эС России является осуществление общественного контроля за деятельностью Фэ Тэ эС России</t>
+  </si>
+  <si>
+    <t>Основными задачами Экспертно-консультативного совета по реализации таможенной политики при Фэ Тэ эС России являются: разработка предложений по совершенствованию таможенной политики Российской Федерации и механизма ее реализации таможенными органами; а также разработка предложений по совершенствованию и упрощению форм и методов таможенного контроля, борьбы с нарушениями таможенных правил</t>
+  </si>
+  <si>
+    <t>Каковы реквизиты счета, на который подлежат перечислению денежные средства, предназначенные для оплаты таможенных платежей?</t>
   </si>
   <si>
     <t>При заполнении платежного документа указывается следующая информация:
@@ -541,351 +867,25 @@
 • «19» - организации и их филиалы (далее – организации), оформившие расчетный документ на перечисление на счет органа Федерального казначейства денежных средств, удержанных из заработка (дохода) должника – физического лица в счет погашения задолженности по таможенным платежам на основании исполнительного документа, направленного в организацию в установленном порядке;
 • «20» - кредитная организация (ее филиал), оформившая расчетный документ по каждому платежу физического лица на перечисление таможенных платежей, уплачиваемых физическими лицами без открытия банковского счета;
 2) поле (104) – указывается двадцатизначный код бюджетной классификации Российской Федерации;
-3) поле (107) – восьмизначный код таможни.
+3) поле (107) – восьмизначный код таможни;
 4) поле «Назначение платежа»:
 Наименование таможни и другая произвольная информация.
 В поле (108) в случае указания в реквизите (101) платежного документа одного из статусов «03» и «16», «19», «20» может быть указан идентификатор сведений о физическом лице либо «ноль».
 В полях (106), (109) и (110) проставляется «ноль»</t>
   </si>
   <si>
-    <t>законодательный, акт, определен, определяет, перечень товаров, ввоз, на территорию, Российская Федерация, РФ, не подлежит, обложению, налог, на добавленную стоимость</t>
-  </si>
-  <si>
-    <t>Перечень товаров, ввоз которых на территорию Российской Федерации не подлежит обложению налогом на добавленную стоимость, определен статьей 150 второй части Налогового кодекса Российской Федерации</t>
-  </si>
-  <si>
-    <t>Перечень товаров, ввоз которых на территорию Российской Федерации не подлежит обложению налогом на добавленную стоимость, определяет Налоговый кодекс Российской Федерации, часть II, статья 150</t>
-  </si>
-  <si>
-    <t>соблюдение, условия, при покупке, товаров, в иностранных, интернет-магазинах, физические лица, освобождены, от уплаты, таможенных пошлин, налогов</t>
-  </si>
-  <si>
-    <t>При покупке товаров в иностранных интернет-магазинах физические лица освобождаются от уплаты таможенных пошлин, налогов при условии, что таможенная стоимость товаров, ввозимых в течение календарного месяца в адрес одного получателя, не превышает сумму, эквивалентную одной тысяче евро, и вес не превышает тридцать одного килограмма</t>
-  </si>
-  <si>
-    <t>В соответствии с пунктами 11 и 16 приложения 3 к Соглашению о порядке перемещения физическими лицами товаров для личного пользования через таможенную границу Таможенного союза и совершения таможенных операций, связанных с их выпуском, от 18 июня 2010 г., при покупке товаров в иностранных интернет-магазинах физические лица освобождаются от уплаты таможенных пошлин, налогов при условии, что таможенная стоимость товаров, ввозимых в течение календарного месяца в адрес одного получателя, не превышает сумму, эквивалентную 1000 евро, и вес не превышает 31 килограмма</t>
-  </si>
-  <si>
-    <t>срок, иностранец, временно, ввезти, в Российскую Федерацию, легковой автомобиль, зарегистрированный, в иностранном государстве, без уплаты, таможенных платежей</t>
-  </si>
-  <si>
-    <t>Иностранец может ввезти в Российскую Федерацию легковой автомобиль, зарегистрированный в иностранном государстве, без уплаты таможенных платежей на срок не более одного года</t>
-  </si>
-  <si>
-    <t>В соответствии с пунктом 2 статьи 358 Таможенного кодекса Таможенного союза и пунктом 22 приложения 3 к Соглашению о порядке перемещения физическими лицами товаров для личного пользования через таможенную границу Таможенного союза и совершения таможенных операций, связанных с их выпуском, от 18 июня 2010 г., иностранец может ввезти в Российскую Федерацию легковой автомобиль, зарегистрированный в иностранном государстве, без уплаты таможенных платежей на срок не более 1 года</t>
-  </si>
-  <si>
-    <t>способ, обеспечивается, исполнение, обязанности, по уплате, таможенных пошлин, налогов, в Российской Федерации</t>
-  </si>
-  <si>
-    <t>форма, представляться, предоставление, таможенный орган, банковские гарантии, обеспечения, исполнения, обязанности, по уплате, таможенных пошлин, налогов</t>
-  </si>
-  <si>
-    <t>Банковские гарантии предоставляются в таможенный орган в качестве обеспечения исполнения обязанности по уплате таможенных пошлин, налогов в форме электронного документа, подписанного усиленной квалифицированной электронной подписью, или в письменной форме на бумажном носителе</t>
-  </si>
-  <si>
-    <t>В соответствии с частью 3 статьи 141 ФЗ-311 «О таможенном регулировании в Российской Федерации» банковские гарантии в качестве обеспечения исполнения обязанности по уплате таможенных пошлин, налогов предоставляются в таможенный орган в форме электронного документа, подписанного усиленной квалифицированной электронной подписью, или в письменной форме на бумажном носителе</t>
-  </si>
-  <si>
-    <t>определяется, сумма, обеспечения, исполнения, обязанности, по уплате, таможенных пошлин, налогов, при проведении, дополнительной проверки, сведении, о товаре, заявленных, декларация, товар</t>
-  </si>
-  <si>
-    <t>Сумма обеспечения исполнения обязанности по уплате таможенных пошлин, налогов определяется как сумма таможенных пошлин, налогов, которые могут быть дополнительно начислены в результате дополнительной проверки</t>
-  </si>
-  <si>
-    <t>В соответствии с пунктом 5 статьи 88 Таможенного кодекса Таможенного союза сумма обеспечения исполнения обязанности по уплате таможенных пошлин, налогов определяется как сумма таможенных пошлин, налогов, которые могут быть дополнительно начислены в результате дополнительной проверки</t>
-  </si>
-  <si>
-    <t>День таможенника Российской Федерации отмечается двадцать пятого октября. 
-В этот день в одна тысяча шестьсот пятьдесят третьем году царь Алексей Михайлович подписал Указ «О взимании таможенной пошлины с товаров в Москве и в городах с показанием, по сколько взято и с каких товаров», положивший начало созданию единой таможенной системы на Руси.
-Международный день таможенника отмечается двадцать шестого января</t>
-  </si>
-  <si>
-    <t>На территории Российской Федерации существует шестнадцать мест для международного почтового обмена, являющихся объектами почтовой связи</t>
-  </si>
-  <si>
-    <t>На территории Российской Федерации существует 16 мест для международного почтового обмена, являющихся объектами почтовой связи</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Таможенными органами проводятся камеральные таможенные проверки </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>и</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> выездные таможенные проверки</t>
-    </r>
-  </si>
-  <si>
-    <t>В соответствии с пунктом 7 статьи 122 Таможенного кодекса Таможенного союза таможенная проверка осуществляется в форме камеральной таможенной проверки (проводится таможенными органами по месту нахождения таможенного органа без выезда к проверяемому лицу) или выездной таможенной проверки (проводится таможенным органом с выездом в место нахождения юридического лица, место осуществления деятельности индивидуального предпринимателя и (или) в место фактического осуществления их деятельности)</t>
-  </si>
-  <si>
-    <t>Таможенным кодексом Таможенного союза предусмотрено двенадцать форм таможенного контроля, такие как проверка документов и сведений, таможенный досмотр, личный таможенный досмотр, таможенный осмотр помещений и территорий, таможенная проверка и другие</t>
-  </si>
-  <si>
-    <t>В соответствии со статьей 99 Таможенного кодекса Таможенного союза и статьей 164 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» таможенные органы Российской Федерации проводят таможенный контроль после выпуска товаров в течение 3 (трех) лет со дня окончания нахождения товаров под таможенным контролем</t>
-  </si>
-  <si>
-    <t>Как подать в ФТС России жалобу на решение, действие (бездействие)  таможенного органа в области таможенного дела?</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">подать, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">действие, бездействие, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> в ФТС, России, Федеральная таможенная служба, жалоба, на решение, таможенного органа</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц приведен в одноименном разделе на официальном сайте </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Фэ Тэ эС</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> России в сети «Интернет»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Порядок обжалования нормативных правовых актов ФТС России установлен главой 21 Кодекса административного судопроизводства Российской Федерации. 
-Порядок обжалования решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен также главой 22 Кодекса административного судопроизводства Российской Федерации.
-Порядок обжалования ненормативных правовых актов, решений и действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц установлен главой 24 Арбитражного процессуального кодекса Российской Федерации.
-Ознакомиться с указанными документами можно в разделе «Судебный порядок обжалования нормативных правовых актов, решений, действий (бездействия) ФТС России, подчиненных таможенных органов и их должностных лиц» на официальном сайте ФТС России </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в сети «Интернет»</t>
-    </r>
-  </si>
-  <si>
-    <t>Получить консультацию по вопросам таможенного дела можно в региональном таможенном управлении или таможне, почтовые адреса, телефоны и адреса электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФТС России в сети «Интернет».
-Административный регламент Федеральной таможенной службы по предоставлению государственной услуги по информированию об актах таможенного законодательства Таможенного союза, законодательства Российской Федерации о таможенном деле и об иных правовых актах Российской Федерации в области таможенного дела и консультированию по вопросам таможенного дела и иным вопросам, входящим в компетенцию таможенных органов, утвержден приказом ФТС России от 9 июня 2012г. № 1128</t>
-  </si>
-  <si>
-    <t>В соответствии с частью 1 статьи 2 Федерального закона от 27 ноября 2010 г. № 311-ФЗ «О таможенном регулировании в Российской Федерации» под таможенным делом в Российской Федерации понимается совокупность средств и методов обеспечения соблюдения мер таможенно-тарифного регулирования, а также запретов и ограничений при ввозе товаров в Российскую Федерацию и вывозе товаров из Российской Федерации</t>
-  </si>
-  <si>
-    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет пять государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
-  </si>
-  <si>
-    <t>В настоящее время количество стран-членов Евразийского экономического союза составляет 5 государств: Российская Федерация, Республика Беларусь, Республика Казахстан, Киргизская Республика, Республика Армения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Членами Всемирной таможенной организации является сто восемьдесят одно государство </t>
-  </si>
-  <si>
-    <t>Членами Всемирной таможенной организации является 181 государство</t>
-  </si>
-  <si>
-    <t>Всемирная таможенная организация основана пятнадцатого декабря одна тысяча девятьсот пятидесятого года</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Фэ Тэ Эс</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> России является подведомственным органом Минфина России с две тысячи шестнадцатого года</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> от десятого декабря две тысячи третьего года</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> номер сто семьдесят три ФЭ ЗЭ  «О валютном регулировании и валютном контроле»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Вопросы валютного контроля в Российской Федерации регулируются Федеральным законом от 10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>декабря</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 2003 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>г.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> № 173-ФЗ «О валютном регулировании и валютном контроле»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕАЭС возникает </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте 10 000  долларов США</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> ЕАЭС</t>
-    </r>
-  </si>
-  <si>
-    <t>Помещать монеты из драгоценных металлов, являющихся законным платежным средством, под таможенную процедуру экспорта вправе только кредитные организации или иные специализированные организации, предусмотренные законодательством государства-члена Е А Э С</t>
-  </si>
-  <si>
-    <t>Товары, запрещенные к ввозу на таможенную территорию Е А Э С, но прибывшие на таможенную территорию Е А Э С, подлежат немедленному вывозу с таможенной территории Е А Э С</t>
-  </si>
-  <si>
-    <t>Исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается: Денежными средствами (деньгами), Банковской гарантией, Поручительством,  Залогом имущества</t>
-  </si>
-  <si>
-    <t>В соответствии с пунктом 1 статьи 86 Таможенного кодекса Таможенного союза, исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается:
-• Денежными средствами (деньгами),
-• Банковской гарантией,
-• Поручительством,
-• Залогом имущества</t>
-  </si>
-  <si>
-    <t>Помещение под таможенные процедуры драгоценных камней и драгоценных металлов юридическими лицами производится на специализированных (категорированных) таможенных постах или в отделах таможенных органов государств членов Таможенного союза, созданных в соответствии с законодательством государств членов</t>
-  </si>
-  <si>
-    <t>Для получения консультации по вопросам таможенного дела необходимо обратиться в региональное таможенное управление или таможню, почтовые адреса, телефоны и адрес\+а электронной почты которых указаны в разделе «Информирование и консультирование по вопросам таможенного дела» на официальном сайте ФэТэ\+ЭС России в сети «Интернет»</t>
-  </si>
-  <si>
-    <t>Обязанность декларирования денежных средств и дорожных чеков при их ввозе физическими лицами на таможенную территорию ЕА\+ЭС возникает в случае, если при единовременном ввозе наличных денежных средств и (или) дорожных чеков общая сумма, превышает в эквиваленте десять тысяч долларов Сэ Шэ А</t>
+    <t>В соответствии с пунктом 1 статьи 86 Таможенного кодекса Таможенного союза исполнение обязанности по уплате таможенных пошлин, налогов в Российской Федерации обеспечивается:
+• денежными средствами (деньгами);
+• банковской гарантией;
+• поручительством;
+• залогом имущества</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1301,24 +1301,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.85546875" style="2" customWidth="1"/>
@@ -1335,7 +1335,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1373,709 +1373,709 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="31.5">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="252">
       <c r="A10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5">
+      <c r="A12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="E12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="213" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="157.5">
       <c r="A14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="60.75" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="31.5">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="31.5">
+      <c r="A19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="31.5">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A22" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="84" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="112.5" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="63">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="47.25">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="94.5">
       <c r="A29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="78.75">
       <c r="A30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="204.75">
       <c r="A31" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="63">
       <c r="A32" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="110.25">
       <c r="A33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="220.5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="220.5">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="409.5">
+      <c r="A35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="63">
+      <c r="A36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="37" spans="1:5" ht="110.25">
+      <c r="A37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="38" spans="1:5" ht="94.5">
+      <c r="A38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D38" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    <row r="39" spans="1:5" ht="174.75" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="78.75">
+      <c r="A40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" ht="78.75">
+      <c r="A41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
